--- a/Tesis/Resultados/Escalon/CC/SENTADO_Izquierdo_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/CC/SENTADO_Izquierdo_layer_0.xlsx
@@ -31,76 +31,76 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.18700559437274933]</t>
-  </si>
-  <si>
-    <t>[0.3436149060726166]</t>
-  </si>
-  <si>
-    <t>[-0.08579588681459427]</t>
-  </si>
-  <si>
-    <t>[0.31245237588882446]</t>
-  </si>
-  <si>
-    <t>[-0.17982512712478638]</t>
-  </si>
-  <si>
-    <t>[0.34190231561660767]</t>
-  </si>
-  <si>
-    <t>[0.7087535262107849]</t>
-  </si>
-  <si>
-    <t>[-0.29619279503822327]</t>
-  </si>
-  <si>
-    <t>[-0.6376726031303406]</t>
-  </si>
-  <si>
-    <t>[-0.15235979855060577]</t>
-  </si>
-  <si>
-    <t>[-0.530680239200592]</t>
-  </si>
-  <si>
-    <t>[0.27129659056663513]</t>
-  </si>
-  <si>
-    <t>[0.752300500869751]</t>
-  </si>
-  <si>
-    <t>[0.6191725134849548]</t>
-  </si>
-  <si>
-    <t>[0.5432403683662415]</t>
-  </si>
-  <si>
-    <t>[0.2258061021566391]</t>
-  </si>
-  <si>
-    <t>[-0.5663793683052063]</t>
-  </si>
-  <si>
-    <t>[0.2629821002483368]</t>
-  </si>
-  <si>
-    <t>[-0.29258981347084045]</t>
-  </si>
-  <si>
-    <t>[-0.3641633093357086]</t>
-  </si>
-  <si>
-    <t>[0.5310565233230591]</t>
-  </si>
-  <si>
-    <t>[-0.2027128040790558]</t>
-  </si>
-  <si>
-    <t>[0.5705488920211792]</t>
-  </si>
-  <si>
-    <t>[-0.5812147855758667]</t>
+    <t>[-0.5588506460189819]</t>
+  </si>
+  <si>
+    <t>[0.6177421808242798]</t>
+  </si>
+  <si>
+    <t>[-0.5526217222213745]</t>
+  </si>
+  <si>
+    <t>[-0.5917390584945679]</t>
+  </si>
+  <si>
+    <t>[-0.4150776267051697]</t>
+  </si>
+  <si>
+    <t>[0.04933544620871544]</t>
+  </si>
+  <si>
+    <t>[-0.5710482001304626]</t>
+  </si>
+  <si>
+    <t>[-0.3499167263507843]</t>
+  </si>
+  <si>
+    <t>[-0.2529580593109131]</t>
+  </si>
+  <si>
+    <t>[-0.26166340708732605]</t>
+  </si>
+  <si>
+    <t>[-0.44173529744148254]</t>
+  </si>
+  <si>
+    <t>[0.4141615927219391]</t>
+  </si>
+  <si>
+    <t>[0.4776877164840698]</t>
+  </si>
+  <si>
+    <t>[0.48772183060646057]</t>
+  </si>
+  <si>
+    <t>[0.19255109131336212]</t>
+  </si>
+  <si>
+    <t>[-0.4424319267272949]</t>
+  </si>
+  <si>
+    <t>[-0.5502715706825256]</t>
+  </si>
+  <si>
+    <t>[0.4647791385650635]</t>
+  </si>
+  <si>
+    <t>[-0.20264501869678497]</t>
+  </si>
+  <si>
+    <t>[0.4427001178264618]</t>
+  </si>
+  <si>
+    <t>[0.23029790818691254]</t>
+  </si>
+  <si>
+    <t>[0.271908164024353]</t>
+  </si>
+  <si>
+    <t>[0.1715441346168518]</t>
+  </si>
+  <si>
+    <t>[0.04070202261209488]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -115,436 +115,436 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.28789353370666504]</t>
-  </si>
-  <si>
-    <t>[-0.20779366791248322]</t>
-  </si>
-  <si>
-    <t>[-0.019040122628211975]</t>
-  </si>
-  <si>
-    <t>[0.14202138781547546]</t>
-  </si>
-  <si>
-    <t>[-0.1657516360282898]</t>
-  </si>
-  <si>
-    <t>[0.488991379737854]</t>
-  </si>
-  <si>
-    <t>[0.3333401381969452]</t>
-  </si>
-  <si>
-    <t>[-0.0018891043728217483]</t>
-  </si>
-  <si>
-    <t>[-0.2629222273826599]</t>
-  </si>
-  <si>
-    <t>[0.32532820105552673]</t>
-  </si>
-  <si>
-    <t>[-0.10270104557275772]</t>
-  </si>
-  <si>
-    <t>[0.38124561309814453]</t>
-  </si>
-  <si>
-    <t>[0.3709062337875366]</t>
-  </si>
-  <si>
-    <t>[0.10701228678226471]</t>
-  </si>
-  <si>
-    <t>[-0.0660715103149414]</t>
-  </si>
-  <si>
-    <t>[-0.11803588271141052]</t>
-  </si>
-  <si>
-    <t>[0.15173539519309998]</t>
-  </si>
-  <si>
-    <t>[0.021200483664870262]</t>
-  </si>
-  <si>
-    <t>[-0.4083089828491211]</t>
-  </si>
-  <si>
-    <t>[0.10681898146867752]</t>
-  </si>
-  <si>
-    <t>[0.5137760043144226]</t>
-  </si>
-  <si>
-    <t>[0.5374049544334412]</t>
-  </si>
-  <si>
-    <t>[0.23546871542930603]</t>
-  </si>
-  <si>
-    <t>[-0.18548451364040375]</t>
-  </si>
-  <si>
-    <t>[-0.06345028430223465]</t>
-  </si>
-  <si>
-    <t>[-0.06583955883979797]</t>
-  </si>
-  <si>
-    <t>[0.1126910075545311]</t>
-  </si>
-  <si>
-    <t>[0.014820819720625877]</t>
-  </si>
-  <si>
-    <t>[-0.11775662004947662]</t>
-  </si>
-  <si>
-    <t>[-0.11599252372980118]</t>
-  </si>
-  <si>
-    <t>[0.03887226805090904]</t>
-  </si>
-  <si>
-    <t>[-0.28823140263557434]</t>
-  </si>
-  <si>
-    <t>[-0.5056025981903076]</t>
-  </si>
-  <si>
-    <t>[-0.15956450998783112]</t>
-  </si>
-  <si>
-    <t>[0.21855652332305908]</t>
-  </si>
-  <si>
-    <t>[0.3278794288635254]</t>
-  </si>
-  <si>
-    <t>[0.3186638057231903]</t>
-  </si>
-  <si>
-    <t>[0.693211555480957]</t>
-  </si>
-  <si>
-    <t>[-0.029799476265907288]</t>
-  </si>
-  <si>
-    <t>[0.21539095044136047]</t>
-  </si>
-  <si>
-    <t>[-0.23901206254959106]</t>
-  </si>
-  <si>
-    <t>[0.1790320724248886]</t>
-  </si>
-  <si>
-    <t>[-0.42808249592781067]</t>
-  </si>
-  <si>
-    <t>[-0.7403265833854675]</t>
-  </si>
-  <si>
-    <t>[0.161424458026886]</t>
-  </si>
-  <si>
-    <t>[0.24987967312335968]</t>
-  </si>
-  <si>
-    <t>[0.09725635498762131]</t>
-  </si>
-  <si>
-    <t>[-0.36869436502456665]</t>
-  </si>
-  <si>
-    <t>[0.026395389810204506]</t>
-  </si>
-  <si>
-    <t>[0.1194615289568901]</t>
-  </si>
-  <si>
-    <t>[0.11086238920688629]</t>
-  </si>
-  <si>
-    <t>[0.11940693110227585]</t>
-  </si>
-  <si>
-    <t>[-0.19718818366527557]</t>
-  </si>
-  <si>
-    <t>[0.2761785387992859]</t>
-  </si>
-  <si>
-    <t>[0.014832093380391598]</t>
-  </si>
-  <si>
-    <t>[0.1800861358642578]</t>
-  </si>
-  <si>
-    <t>[-0.1661510467529297]</t>
-  </si>
-  <si>
-    <t>[0.12927377223968506]</t>
-  </si>
-  <si>
-    <t>[-0.033570967614650726]</t>
-  </si>
-  <si>
-    <t>[-0.1462879627943039]</t>
-  </si>
-  <si>
-    <t>[0.22157219052314758]</t>
-  </si>
-  <si>
-    <t>[0.44645920395851135]</t>
-  </si>
-  <si>
-    <t>[0.28778231143951416]</t>
-  </si>
-  <si>
-    <t>[0.2785375118255615]</t>
-  </si>
-  <si>
-    <t>[-0.15475375950336456]</t>
-  </si>
-  <si>
-    <t>[0.0824563056230545]</t>
-  </si>
-  <si>
-    <t>[0.0826708972454071]</t>
-  </si>
-  <si>
-    <t>[0.07163989543914795]</t>
-  </si>
-  <si>
-    <t>[0.7887521982192993]</t>
-  </si>
-  <si>
-    <t>[-0.061423756182193756]</t>
-  </si>
-  <si>
-    <t>[0.4590681195259094]</t>
-  </si>
-  <si>
-    <t>[-0.20588958263397217]</t>
-  </si>
-  <si>
-    <t>[-0.2495316118001938]</t>
-  </si>
-  <si>
-    <t>[-0.14636322855949402]</t>
-  </si>
-  <si>
-    <t>[0.06479001045227051]</t>
-  </si>
-  <si>
-    <t>[0.5844767689704895]</t>
-  </si>
-  <si>
-    <t>[0.09781629592180252]</t>
-  </si>
-  <si>
-    <t>[0.1737855076789856]</t>
-  </si>
-  <si>
-    <t>[0.6446448564529419]</t>
-  </si>
-  <si>
-    <t>[0.25874441862106323]</t>
-  </si>
-  <si>
-    <t>[-0.28631216287612915]</t>
-  </si>
-  <si>
-    <t>[0.44905686378479004]</t>
-  </si>
-  <si>
-    <t>[-0.24428775906562805]</t>
-  </si>
-  <si>
-    <t>[-0.14166001975536346]</t>
-  </si>
-  <si>
-    <t>[0.4108327627182007]</t>
-  </si>
-  <si>
-    <t>[0.20580129325389862]</t>
-  </si>
-  <si>
-    <t>[0.24768707156181335]</t>
-  </si>
-  <si>
-    <t>[0.13299454748630524]</t>
-  </si>
-  <si>
-    <t>[-0.5270889401435852]</t>
-  </si>
-  <si>
-    <t>[0.4629855751991272]</t>
-  </si>
-  <si>
-    <t>[-0.12740343809127808]</t>
-  </si>
-  <si>
-    <t>[-0.03687606006860733]</t>
-  </si>
-  <si>
-    <t>[0.23730455338954926]</t>
-  </si>
-  <si>
-    <t>[0.27072519063949585]</t>
-  </si>
-  <si>
-    <t>[0.4687531888484955]</t>
-  </si>
-  <si>
-    <t>[-0.18564820289611816]</t>
-  </si>
-  <si>
-    <t>[-0.04026998579502106]</t>
-  </si>
-  <si>
-    <t>[-0.3246850073337555]</t>
-  </si>
-  <si>
-    <t>[-0.06895735114812851]</t>
-  </si>
-  <si>
-    <t>[-0.19749723374843597]</t>
-  </si>
-  <si>
-    <t>[-0.005648613907396793]</t>
-  </si>
-  <si>
-    <t>[0.25463175773620605]</t>
-  </si>
-  <si>
-    <t>[0.019121000543236732]</t>
-  </si>
-  <si>
-    <t>[-0.1002836599946022]</t>
-  </si>
-  <si>
-    <t>[0.28688952326774597]</t>
-  </si>
-  <si>
-    <t>[-0.11019716411828995]</t>
-  </si>
-  <si>
-    <t>[0.5453251004219055]</t>
-  </si>
-  <si>
-    <t>[-0.24679923057556152]</t>
-  </si>
-  <si>
-    <t>[-0.45539748668670654]</t>
-  </si>
-  <si>
-    <t>[-0.10166636854410172]</t>
-  </si>
-  <si>
-    <t>[0.060412436723709106]</t>
-  </si>
-  <si>
-    <t>[-0.1885295957326889]</t>
-  </si>
-  <si>
-    <t>[0.2071310579776764]</t>
-  </si>
-  <si>
-    <t>[-0.07666373252868652]</t>
-  </si>
-  <si>
-    <t>[0.40869140625]</t>
-  </si>
-  <si>
-    <t>[0.059614695608615875]</t>
-  </si>
-  <si>
-    <t>[-0.39898133277893066]</t>
-  </si>
-  <si>
-    <t>[-0.4658108055591583]</t>
-  </si>
-  <si>
-    <t>[-0.7991205453872681]</t>
-  </si>
-  <si>
-    <t>[0.13096299767494202]</t>
-  </si>
-  <si>
-    <t>[0.043032627552747726]</t>
-  </si>
-  <si>
-    <t>[0.30679354071617126]</t>
-  </si>
-  <si>
-    <t>[0.1453980654478073]</t>
-  </si>
-  <si>
-    <t>[-0.15509574115276337]</t>
-  </si>
-  <si>
-    <t>[-0.21985723078250885]</t>
-  </si>
-  <si>
-    <t>[0.21737128496170044]</t>
-  </si>
-  <si>
-    <t>[-0.2984190285205841]</t>
-  </si>
-  <si>
-    <t>[0.06250806897878647]</t>
-  </si>
-  <si>
-    <t>[0.48650649189949036]</t>
-  </si>
-  <si>
-    <t>[-0.11602838337421417]</t>
-  </si>
-  <si>
-    <t>[0.40381091833114624]</t>
-  </si>
-  <si>
-    <t>[-0.17508435249328613]</t>
-  </si>
-  <si>
-    <t>[-0.17411698400974274]</t>
-  </si>
-  <si>
-    <t>[-0.2881956994533539]</t>
-  </si>
-  <si>
-    <t>[-0.6741561889648438]</t>
-  </si>
-  <si>
-    <t>[0.18232253193855286]</t>
-  </si>
-  <si>
-    <t>[-0.017873898148536682]</t>
-  </si>
-  <si>
-    <t>[-0.0708758533000946]</t>
-  </si>
-  <si>
-    <t>[0.342091828584671]</t>
-  </si>
-  <si>
-    <t>[0.02047123573720455]</t>
-  </si>
-  <si>
-    <t>[-0.4571053385734558]</t>
-  </si>
-  <si>
-    <t>[-0.033003125339746475]</t>
-  </si>
-  <si>
-    <t>[-0.3254202902317047]</t>
-  </si>
-  <si>
-    <t>[0.12333770841360092]</t>
+    <t>[-0.2519482672214508]</t>
+  </si>
+  <si>
+    <t>[0.02480700984597206]</t>
+  </si>
+  <si>
+    <t>[0.43817442655563354]</t>
+  </si>
+  <si>
+    <t>[0.030261024832725525]</t>
+  </si>
+  <si>
+    <t>[0.3549305498600006]</t>
+  </si>
+  <si>
+    <t>[0.13410988450050354]</t>
+  </si>
+  <si>
+    <t>[0.1703551858663559]</t>
+  </si>
+  <si>
+    <t>[-0.14518344402313232]</t>
+  </si>
+  <si>
+    <t>[-0.1374513953924179]</t>
+  </si>
+  <si>
+    <t>[0.10835069417953491]</t>
+  </si>
+  <si>
+    <t>[-0.3067289888858795]</t>
+  </si>
+  <si>
+    <t>[-0.13499480485916138]</t>
+  </si>
+  <si>
+    <t>[-0.17585952579975128]</t>
+  </si>
+  <si>
+    <t>[-0.01869259588420391]</t>
+  </si>
+  <si>
+    <t>[0.08414163440465927]</t>
+  </si>
+  <si>
+    <t>[0.07327928394079208]</t>
+  </si>
+  <si>
+    <t>[0.19601674377918243]</t>
+  </si>
+  <si>
+    <t>[-0.05488165095448494]</t>
+  </si>
+  <si>
+    <t>[-0.13952654600143433]</t>
+  </si>
+  <si>
+    <t>[-0.06409472227096558]</t>
+  </si>
+  <si>
+    <t>[-0.1055615246295929]</t>
+  </si>
+  <si>
+    <t>[0.20619453489780426]</t>
+  </si>
+  <si>
+    <t>[0.03254667669534683]</t>
+  </si>
+  <si>
+    <t>[-0.3006948232650757]</t>
+  </si>
+  <si>
+    <t>[0.05057019367814064]</t>
+  </si>
+  <si>
+    <t>[-0.046218596398830414]</t>
+  </si>
+  <si>
+    <t>[0.07813742756843567]</t>
+  </si>
+  <si>
+    <t>[0.05066169053316116]</t>
+  </si>
+  <si>
+    <t>[0.20410767197608948]</t>
+  </si>
+  <si>
+    <t>[-0.5566037893295288]</t>
+  </si>
+  <si>
+    <t>[0.11326649785041809]</t>
+  </si>
+  <si>
+    <t>[0.06308197975158691]</t>
+  </si>
+  <si>
+    <t>[-0.03999192640185356]</t>
+  </si>
+  <si>
+    <t>[-0.17438960075378418]</t>
+  </si>
+  <si>
+    <t>[0.1221768856048584]</t>
+  </si>
+  <si>
+    <t>[0.09190359711647034]</t>
+  </si>
+  <si>
+    <t>[-0.3274610638618469]</t>
+  </si>
+  <si>
+    <t>[-0.262596070766449]</t>
+  </si>
+  <si>
+    <t>[0.016002153977751732]</t>
+  </si>
+  <si>
+    <t>[0.0502016618847847]</t>
+  </si>
+  <si>
+    <t>[0.305593878030777]</t>
+  </si>
+  <si>
+    <t>[0.19013410806655884]</t>
+  </si>
+  <si>
+    <t>[-0.2743076980113983]</t>
+  </si>
+  <si>
+    <t>[0.39741599559783936]</t>
+  </si>
+  <si>
+    <t>[0.06036696583032608]</t>
+  </si>
+  <si>
+    <t>[-0.34195515513420105]</t>
+  </si>
+  <si>
+    <t>[-0.18604499101638794]</t>
+  </si>
+  <si>
+    <t>[-0.09466301649808884]</t>
+  </si>
+  <si>
+    <t>[0.06625623255968094]</t>
+  </si>
+  <si>
+    <t>[0.18124453723430634]</t>
+  </si>
+  <si>
+    <t>[0.3101251721382141]</t>
+  </si>
+  <si>
+    <t>[-0.07132448256015778]</t>
+  </si>
+  <si>
+    <t>[0.04807193949818611]</t>
+  </si>
+  <si>
+    <t>[0.28281092643737793]</t>
+  </si>
+  <si>
+    <t>[-0.33837202191352844]</t>
+  </si>
+  <si>
+    <t>[0.23367787897586823]</t>
+  </si>
+  <si>
+    <t>[0.10384467989206314]</t>
+  </si>
+  <si>
+    <t>[0.05903138592839241]</t>
+  </si>
+  <si>
+    <t>[0.16777367889881134]</t>
+  </si>
+  <si>
+    <t>[0.04883234202861786]</t>
+  </si>
+  <si>
+    <t>[0.4614361822605133]</t>
+  </si>
+  <si>
+    <t>[-0.03909749537706375]</t>
+  </si>
+  <si>
+    <t>[0.41786250472068787]</t>
+  </si>
+  <si>
+    <t>[-0.450554758310318]</t>
+  </si>
+  <si>
+    <t>[-0.17828474938869476]</t>
+  </si>
+  <si>
+    <t>[0.04790234565734863]</t>
+  </si>
+  <si>
+    <t>[-0.2570951282978058]</t>
+  </si>
+  <si>
+    <t>[0.19728654623031616]</t>
+  </si>
+  <si>
+    <t>[0.1121990978717804]</t>
+  </si>
+  <si>
+    <t>[0.26098158955574036]</t>
+  </si>
+  <si>
+    <t>[0.0741976946592331]</t>
+  </si>
+  <si>
+    <t>[0.20511791110038757]</t>
+  </si>
+  <si>
+    <t>[0.0650530755519867]</t>
+  </si>
+  <si>
+    <t>[-0.06250177323818207]</t>
+  </si>
+  <si>
+    <t>[-0.17483866214752197]</t>
+  </si>
+  <si>
+    <t>[0.09443841874599457]</t>
+  </si>
+  <si>
+    <t>[0.40691179037094116]</t>
+  </si>
+  <si>
+    <t>[-0.06207665055990219]</t>
+  </si>
+  <si>
+    <t>[-0.19659678637981415]</t>
+  </si>
+  <si>
+    <t>[0.2232622355222702]</t>
+  </si>
+  <si>
+    <t>[0.004893622361123562]</t>
+  </si>
+  <si>
+    <t>[0.08105198293924332]</t>
+  </si>
+  <si>
+    <t>[0.17878639698028564]</t>
+  </si>
+  <si>
+    <t>[0.006216441281139851]</t>
+  </si>
+  <si>
+    <t>[-0.4194117486476898]</t>
+  </si>
+  <si>
+    <t>[-0.3909980356693268]</t>
+  </si>
+  <si>
+    <t>[-0.010974477976560593]</t>
+  </si>
+  <si>
+    <t>[-0.08277233690023422]</t>
+  </si>
+  <si>
+    <t>[-0.05120595544576645]</t>
+  </si>
+  <si>
+    <t>[0.22191466391086578]</t>
+  </si>
+  <si>
+    <t>[0.24096491932868958]</t>
+  </si>
+  <si>
+    <t>[-0.2556788921356201]</t>
+  </si>
+  <si>
+    <t>[-0.4901809096336365]</t>
+  </si>
+  <si>
+    <t>[0.03315044566988945]</t>
+  </si>
+  <si>
+    <t>[0.06205984577536583]</t>
+  </si>
+  <si>
+    <t>[-0.04316873103380203]</t>
+  </si>
+  <si>
+    <t>[-0.046286433935165405]</t>
+  </si>
+  <si>
+    <t>[0.28278201818466187]</t>
+  </si>
+  <si>
+    <t>[-0.15067212283611298]</t>
+  </si>
+  <si>
+    <t>[-0.016130320727825165]</t>
+  </si>
+  <si>
+    <t>[-0.4189009964466095]</t>
+  </si>
+  <si>
+    <t>[0.13353940844535828]</t>
+  </si>
+  <si>
+    <t>[-0.5425611734390259]</t>
+  </si>
+  <si>
+    <t>[0.10529228299856186]</t>
+  </si>
+  <si>
+    <t>[-0.4084762930870056]</t>
+  </si>
+  <si>
+    <t>[-0.23465555906295776]</t>
+  </si>
+  <si>
+    <t>[-0.029579179361462593]</t>
+  </si>
+  <si>
+    <t>[0.1665455400943756]</t>
+  </si>
+  <si>
+    <t>[0.5283746719360352]</t>
+  </si>
+  <si>
+    <t>[0.0026232118252664804]</t>
+  </si>
+  <si>
+    <t>[0.010756237432360649]</t>
+  </si>
+  <si>
+    <t>[0.014223090372979641]</t>
+  </si>
+  <si>
+    <t>[0.1426246166229248]</t>
+  </si>
+  <si>
+    <t>[0.12488627433776855]</t>
+  </si>
+  <si>
+    <t>[0.039452776312828064]</t>
+  </si>
+  <si>
+    <t>[0.04321984201669693]</t>
+  </si>
+  <si>
+    <t>[0.14978767931461334]</t>
+  </si>
+  <si>
+    <t>[0.14714016020298004]</t>
+  </si>
+  <si>
+    <t>[0.4626273810863495]</t>
+  </si>
+  <si>
+    <t>[0.016285838559269905]</t>
+  </si>
+  <si>
+    <t>[-0.04054737836122513]</t>
+  </si>
+  <si>
+    <t>[-0.025589076802134514]</t>
+  </si>
+  <si>
+    <t>[-0.0017501526745036244]</t>
+  </si>
+  <si>
+    <t>[-0.3666265308856964]</t>
+  </si>
+  <si>
+    <t>[-0.0696960985660553]</t>
+  </si>
+  <si>
+    <t>[0.1755673736333847]</t>
+  </si>
+  <si>
+    <t>[-0.20098483562469482]</t>
+  </si>
+  <si>
+    <t>[-0.08204100281000137]</t>
+  </si>
+  <si>
+    <t>[-0.2127508670091629]</t>
+  </si>
+  <si>
+    <t>[0.0739690363407135]</t>
+  </si>
+  <si>
+    <t>[0.061111025512218475]</t>
+  </si>
+  <si>
+    <t>[0.05801289528608322]</t>
+  </si>
+  <si>
+    <t>[0.5865654945373535]</t>
+  </si>
+  <si>
+    <t>[0.36622634530067444]</t>
+  </si>
+  <si>
+    <t>[0.48918452858924866]</t>
+  </si>
+  <si>
+    <t>[0.3212108910083771]</t>
+  </si>
+  <si>
+    <t>[-0.3933078944683075]</t>
+  </si>
+  <si>
+    <t>[0.25636330246925354]</t>
+  </si>
+  <si>
+    <t>[0.35064658522605896]</t>
+  </si>
+  <si>
+    <t>[0.27104488015174866]</t>
+  </si>
+  <si>
+    <t>[0.1453302800655365]</t>
+  </si>
+  <si>
+    <t>[-0.168344184756279]</t>
+  </si>
+  <si>
+    <t>[0.3680019676685333]</t>
+  </si>
+  <si>
+    <t>[0.3130945861339569]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -559,76 +559,76 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.20174290239810944]</t>
-  </si>
-  <si>
-    <t>[1.1892999410629272]</t>
-  </si>
-  <si>
-    <t>[-0.17696605622768402]</t>
-  </si>
-  <si>
-    <t>[0.23552139103412628]</t>
-  </si>
-  <si>
-    <t>[-0.21788549423217773]</t>
-  </si>
-  <si>
-    <t>[1.2112442255020142]</t>
-  </si>
-  <si>
-    <t>[0.2564741373062134]</t>
-  </si>
-  <si>
-    <t>[0.06381872296333313]</t>
-  </si>
-  <si>
-    <t>[-0.31653717160224915]</t>
-  </si>
-  <si>
-    <t>[1.3080488443374634]</t>
-  </si>
-  <si>
-    <t>[-0.31279319524765015]</t>
-  </si>
-  <si>
-    <t>[0.12727591395378113]</t>
-  </si>
-  <si>
-    <t>[0.3089195191860199]</t>
-  </si>
-  <si>
-    <t>[1.2918243408203125]</t>
-  </si>
-  <si>
-    <t>[0.3016948699951172]</t>
-  </si>
-  <si>
-    <t>[0.0612526535987854]</t>
-  </si>
-  <si>
-    <t>[-0.25963982939720154]</t>
-  </si>
-  <si>
-    <t>[1.2397425174713135]</t>
-  </si>
-  <si>
-    <t>[-0.2643543481826782]</t>
-  </si>
-  <si>
-    <t>[0.014726775698363781]</t>
-  </si>
-  <si>
-    <t>[0.30835476517677307]</t>
-  </si>
-  <si>
-    <t>[1.304916262626648]</t>
-  </si>
-  <si>
-    <t>[0.31187012791633606]</t>
-  </si>
-  <si>
-    <t>[-0.053271643817424774]</t>
+    <t>[-0.1328817754983902]</t>
+  </si>
+  <si>
+    <t>[1.0255818367004395]</t>
+  </si>
+  <si>
+    <t>[-0.17722603678703308]</t>
+  </si>
+  <si>
+    <t>[0.006328226067125797]</t>
+  </si>
+  <si>
+    <t>[-0.24031217396259308]</t>
+  </si>
+  <si>
+    <t>[1.1530656814575195]</t>
+  </si>
+  <si>
+    <t>[-0.2297738790512085]</t>
+  </si>
+  <si>
+    <t>[-0.019727978855371475]</t>
+  </si>
+  <si>
+    <t>[-0.22186829149723053]</t>
+  </si>
+  <si>
+    <t>[1.124343991279602]</t>
+  </si>
+  <si>
+    <t>[-0.1473853886127472]</t>
+  </si>
+  <si>
+    <t>[0.09219006448984146]</t>
+  </si>
+  <si>
+    <t>[0.3286186754703522]</t>
+  </si>
+  <si>
+    <t>[1.2406126260757446]</t>
+  </si>
+  <si>
+    <t>[0.3168259263038635]</t>
+  </si>
+  <si>
+    <t>[0.06376858800649643]</t>
+  </si>
+  <si>
+    <t>[-0.33000078797340393]</t>
+  </si>
+  <si>
+    <t>[1.1769005060195923]</t>
+  </si>
+  <si>
+    <t>[-0.1537359058856964]</t>
+  </si>
+  <si>
+    <t>[0.2029390037059784]</t>
+  </si>
+  <si>
+    <t>[0.18485502898693085]</t>
+  </si>
+  <si>
+    <t>[1.24244225025177]</t>
+  </si>
+  <si>
+    <t>[0.15650856494903564]</t>
+  </si>
+  <si>
+    <t>[0.29419344663619995]</t>
   </si>
 </sst>
 </file>
